--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/法人资本金.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/法人资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>184.11317</v>
-      </c>
-      <c r="C2" t="n">
-        <v>609.51108</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65.46519000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.08538</v>
-      </c>
-      <c r="F2" t="n">
-        <v>37.63811</v>
-      </c>
-      <c r="G2" t="n">
-        <v>445.15088</v>
-      </c>
-      <c r="H2" t="n">
-        <v>98.38307</v>
-      </c>
-      <c r="I2" t="n">
-        <v>209.09262</v>
-      </c>
-      <c r="J2" t="n">
-        <v>53.09895</v>
-      </c>
-      <c r="K2" t="n">
-        <v>117.54418</v>
-      </c>
-      <c r="L2" t="n">
-        <v>25.56081</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19.85153</v>
-      </c>
-      <c r="N2" t="n">
-        <v>279.95691</v>
-      </c>
-      <c r="O2" t="n">
-        <v>237.50984</v>
-      </c>
-      <c r="P2" t="n">
-        <v>25.8553</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>87.51364</v>
-      </c>
-      <c r="R2" t="n">
-        <v>51.49568</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.65199</v>
-      </c>
-      <c r="T2" t="n">
-        <v>39.17794</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9.269819999999999</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.64564</v>
-      </c>
-      <c r="W2" t="n">
-        <v>77.4161</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1647.15189</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>379.58004</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>315.04006</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>46.05873</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>431.02523</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>214.41136</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>278.05343</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>44.9045</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>7458.61414</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>90.22243</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>127.06194</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>365.85022</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>25.8495</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>91.73981000000001</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>124.80178</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>115.28182</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>358.88708</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>6.76263</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>229.83064</v>
-      </c>
-      <c r="C3" t="n">
-        <v>920.96315</v>
-      </c>
-      <c r="D3" t="n">
-        <v>71.78701</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08358</v>
-      </c>
-      <c r="F3" t="n">
-        <v>40.11954</v>
-      </c>
-      <c r="G3" t="n">
-        <v>725.49475</v>
-      </c>
-      <c r="H3" t="n">
-        <v>124.22301</v>
-      </c>
-      <c r="I3" t="n">
-        <v>270.98106</v>
-      </c>
-      <c r="J3" t="n">
-        <v>64.47857999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>128.90685</v>
-      </c>
-      <c r="L3" t="n">
-        <v>31.07547</v>
-      </c>
-      <c r="M3" t="n">
-        <v>22.85284</v>
-      </c>
-      <c r="N3" t="n">
-        <v>317.04512</v>
-      </c>
-      <c r="O3" t="n">
-        <v>248.60651</v>
-      </c>
-      <c r="P3" t="n">
-        <v>25.45023</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>89.94596</v>
-      </c>
-      <c r="R3" t="n">
-        <v>60.92759</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.69663</v>
-      </c>
-      <c r="T3" t="n">
-        <v>49.01554</v>
-      </c>
-      <c r="U3" t="n">
-        <v>13.72554</v>
-      </c>
-      <c r="V3" t="n">
-        <v>18.53387</v>
-      </c>
-      <c r="W3" t="n">
-        <v>167.30791</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1684.68651</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>471.96017</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>337.63802</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>48.05757</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>486.67962</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>205.61843</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>314.13234</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>74.60992</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9011.96767</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>105.38667</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>171.47822</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>453.6165</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>26.94157</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>109.52252</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>166.29131</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>149.87377</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>442.10378</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.7925</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>248.94826</v>
-      </c>
-      <c r="C4" t="n">
-        <v>902.00951</v>
-      </c>
-      <c r="D4" t="n">
-        <v>81.19372</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.22738</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44.73715</v>
-      </c>
-      <c r="G4" t="n">
-        <v>920.13187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>136.52324</v>
-      </c>
-      <c r="I4" t="n">
-        <v>352.49979</v>
-      </c>
-      <c r="J4" t="n">
-        <v>82.00503</v>
-      </c>
-      <c r="K4" t="n">
-        <v>154.8723</v>
-      </c>
-      <c r="L4" t="n">
-        <v>35.54648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>26.80146</v>
-      </c>
-      <c r="N4" t="n">
-        <v>351.55246</v>
-      </c>
-      <c r="O4" t="n">
-        <v>224.4354</v>
-      </c>
-      <c r="P4" t="n">
-        <v>31.27122</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>112.81851</v>
-      </c>
-      <c r="R4" t="n">
-        <v>65.15255000000001</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8.186199999999999</v>
-      </c>
-      <c r="T4" t="n">
-        <v>62.79263</v>
-      </c>
-      <c r="U4" t="n">
-        <v>15.51977</v>
-      </c>
-      <c r="V4" t="n">
-        <v>28.34208</v>
-      </c>
-      <c r="W4" t="n">
-        <v>254.52114</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1948.33071</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>564.35589</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>385.00434</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>52.11155</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>492.34125</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>817.05594</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>348.32069</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>43.26109</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10822.70742</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>119.84476</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>164.11128</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>507.56923</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>51.60201</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>129.93098</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>191.3024</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>182.39065</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>538.00302</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>22.29372</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
